--- a/exposan/co2_sorbent/data/impact_items.xlsx
+++ b/exposan/co2_sorbent/data/impact_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/co2_sorbent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C53F2A-726B-984B-80B5-260BE2097DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC204C2-6B02-FA40-8ACF-46E0E945F29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19180" yWindow="3240" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -61,9 +61,6 @@
     <t>functional_unit</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -106,16 +103,10 @@
     <t>Cooling</t>
   </si>
   <si>
-    <t>Stainless_steel</t>
-  </si>
-  <si>
     <t>Heating</t>
   </si>
   <si>
     <t>market group for electricity, low voltage</t>
-  </si>
-  <si>
-    <t>market for steel, chromium steel 18/8</t>
   </si>
 </sst>
 </file>
@@ -488,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,74 +497,60 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -584,10 +561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,10 +581,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -627,21 +604,21 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>6.6032741000000006E-2</v>
+        <v>0.70378750999999995</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D5" si="0">C2*0.9</f>
-        <v>5.9429466900000005E-2</v>
+        <f>C2*0.9</f>
+        <v>0.63340875899999993</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E5" si="1">C2*1.1</f>
-        <v>7.2636015100000006E-2</v>
+        <f>C2*1.1</f>
+        <v>0.77416626099999997</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -653,48 +630,48 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
+        <v>6.6032741000000006E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D4" si="0">C3*0.9</f>
+        <v>5.9429466900000005E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E4" si="1">C3*1.1</f>
+        <v>7.2636015100000006E-2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.11945807</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>0.107512263</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>0.131403877</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.70378750999999995</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.63340875899999993</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.77416626099999997</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
@@ -704,36 +681,10 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.8562124999999998</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3705912500000004</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>5.3418337500000002</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/exposan/co2_sorbent/data/impact_items.xlsx
+++ b/exposan/co2_sorbent/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/co2_sorbent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC204C2-6B02-FA40-8ACF-46E0E945F29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4015C-8D71-0244-B135-73DAA695293B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="3240" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="50000" windowHeight="28300" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>market group for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ALF</t>
+  </si>
+  <si>
+    <t>calculate LCA for ALF by adjusting the ALF amount in the code and assuming its CI as 1</t>
   </si>
 </sst>
 </file>
@@ -479,19 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -552,6 +567,37 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -561,16 +607,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -681,10 +728,50 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/exposan/co2_sorbent/data/impact_items.xlsx
+++ b/exposan/co2_sorbent/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/co2_sorbent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4015C-8D71-0244-B135-73DAA695293B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B598CD0C-F099-1945-B9B5-320CA540217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="50000" windowHeight="28300" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="4000" yWindow="500" windowWidth="22920" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,15 +657,15 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0.70378750999999995</v>
+        <v>0.70357913000000005</v>
       </c>
       <c r="D2" s="2">
         <f>C2*0.9</f>
-        <v>0.63340875899999993</v>
+        <v>0.63322121700000011</v>
       </c>
       <c r="E2" s="2">
         <f>C2*1.1</f>
-        <v>0.77416626099999997</v>
+        <v>0.7739370430000001</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -683,15 +683,15 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>6.6032741000000006E-2</v>
+        <v>6.5877932E-2</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D4" si="0">C3*0.9</f>
-        <v>5.9429466900000005E-2</v>
+        <v>5.9290138800000003E-2</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E4" si="1">C3*1.1</f>
-        <v>7.2636015100000006E-2</v>
+        <v>7.2465725200000011E-2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -709,15 +709,15 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.11945807</v>
+        <v>0.1194374</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.107512263</v>
+        <v>0.10749366</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>0.131403877</v>
+        <v>0.13138114000000001</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>

--- a/exposan/co2_sorbent/data/impact_items.xlsx
+++ b/exposan/co2_sorbent/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/co2_sorbent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B598CD0C-F099-1945-B9B5-320CA540217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A94FB-01EE-2249-86A9-E8ACC3D5F674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="500" windowWidth="22920" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="21940" yWindow="6440" windowWidth="22920" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,15 +657,15 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0.70357913000000005</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>C2*0.9</f>
-        <v>0.63322121700000011</v>
+        <v>0.80370000000000008</v>
       </c>
       <c r="E2" s="2">
         <f>C2*1.1</f>
-        <v>0.7739370430000001</v>
+        <v>0.98230000000000006</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>

--- a/exposan/co2_sorbent/data/impact_items.xlsx
+++ b/exposan/co2_sorbent/data/impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/co2_sorbent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A94FB-01EE-2249-86A9-E8ACC3D5F674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA8FF7-9D1D-1744-B6EC-3394D6FAD26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21940" yWindow="6440" windowWidth="22920" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="15920" yWindow="12000" windowWidth="22920" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -97,18 +97,12 @@
     <t>market for cooling energy</t>
   </si>
   <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>Cooling</t>
   </si>
   <si>
     <t>Heating</t>
   </si>
   <si>
-    <t>market group for electricity, low voltage</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -122,6 +116,24 @@
   </si>
   <si>
     <t>calculate LCA for ALF by adjusting the ALF amount in the code and assuming its CI as 1</t>
+  </si>
+  <si>
+    <t>Dirty_electricity</t>
+  </si>
+  <si>
+    <t>market group for electricity, high voltage</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Clean_electricity</t>
+  </si>
+  <si>
+    <t>market for electricity, high voltage, renewable energy products</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -494,17 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="2"/>
@@ -529,75 +541,90 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -607,15 +634,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -651,47 +678,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0.89300000000000002</v>
+        <v>8.6499999999999997E-3</v>
       </c>
       <c r="D2" s="2">
         <f>C2*0.9</f>
-        <v>0.80370000000000008</v>
+        <v>7.7850000000000003E-3</v>
       </c>
       <c r="E2" s="2">
         <f>C2*1.1</f>
-        <v>0.98230000000000006</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>9.5150000000000009E-3</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>6.5877932E-2</v>
+        <v>0.48748859</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">C3*0.9</f>
-        <v>5.9290138800000003E-2</v>
+        <f>C3*0.9</f>
+        <v>0.43873973100000002</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E4" si="1">C3*1.1</f>
-        <v>7.2465725200000011E-2</v>
+        <f>C3*1.1</f>
+        <v>0.53623744900000003</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -703,56 +725,59 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
+        <v>6.5877932E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D5" si="0">C4*0.9</f>
+        <v>5.9290138800000003E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E5" si="1">C4*1.1</f>
+        <v>7.2465725200000011E-2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.1194374</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>0.10749366</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>0.13138114000000001</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -770,8 +795,34 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/exposan/co2_sorbent/data/impact_items.xlsx
+++ b/exposan/co2_sorbent/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/coding/cloned_packages/EXPOsan/exposan/co2_sorbent/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA8FF7-9D1D-1744-B6EC-3394D6FAD26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDEC9BB-18C5-8E45-A7DA-44ABAE489F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="12000" windowWidth="22920" windowHeight="28300" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="15920" yWindow="29560" windowWidth="22920" windowHeight="18880" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Cooling</t>
   </si>
   <si>
-    <t>Heating</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -134,6 +131,27 @@
   </si>
   <si>
     <t>CH</t>
+  </si>
+  <si>
+    <t>Steam_heating</t>
+  </si>
+  <si>
+    <t>Future_heating</t>
+  </si>
+  <si>
+    <t>Waste_heating</t>
+  </si>
+  <si>
+    <t>market for heat, for reuse in municipal waste incineration only</t>
+  </si>
+  <si>
+    <t>market for heat, future</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>calculate LCA for CO2 by adjusting the CO2 amount in the code and assuming its CI as 1</t>
   </si>
 </sst>
 </file>
@@ -188,10 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,90 +562,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -634,10 +686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,42 +730,46 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>8.6499999999999997E-3</v>
+      <c r="C2" s="3">
+        <v>8.8149466999999995E-3</v>
       </c>
       <c r="D2" s="2">
         <f>C2*0.9</f>
-        <v>7.7850000000000003E-3</v>
+        <v>7.9334520299999996E-3</v>
       </c>
       <c r="E2" s="2">
         <f>C2*1.1</f>
-        <v>9.5150000000000009E-3</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>9.6964413699999995E-3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>0.48748859</v>
+        <v>0.49472232999999999</v>
       </c>
       <c r="D3" s="2">
         <f>C3*0.9</f>
-        <v>0.43873973100000002</v>
+        <v>0.44525009700000001</v>
       </c>
       <c r="E3" s="2">
         <f>C3*1.1</f>
-        <v>0.53623744900000003</v>
+        <v>0.54419456300000002</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -725,21 +781,21 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>6.5877932E-2</v>
+        <v>0.10389402</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="0">C4*0.9</f>
-        <v>5.9290138800000003E-2</v>
+        <f>C4*0.9</f>
+        <v>9.3504618000000012E-2</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E5" si="1">C4*1.1</f>
-        <v>7.2465725200000011E-2</v>
+        <f>C4*1.1</f>
+        <v>0.11428342200000001</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -751,21 +807,21 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>0.1194374</v>
+        <v>5.1308904000000001E-3</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10749366</v>
+        <f t="shared" ref="D5:D6" si="0">C5*0.9</f>
+        <v>4.6178013599999998E-3</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.13138114000000001</v>
+        <f t="shared" ref="E5:E6" si="1">C5*1.1</f>
+        <v>5.6439794400000003E-3</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
@@ -777,52 +833,104 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>2.0784497E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.87060473E-4</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2862946700000003E-4</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>6.7861487999999998E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7" si="2">C7*0.9</f>
+        <v>6.1075339200000002E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7" si="3">C7*1.1</f>
+        <v>7.46476368E-2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
